--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC17B55-725C-45D7-9C02-B9C3B1B531EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68F604C-4523-4245-88BD-5A22D5EAB440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="675">
   <si>
     <t>OrgString</t>
   </si>
@@ -1779,9 +1779,6 @@
   </si>
   <si>
     <t>정찰총국_제5국</t>
-  </si>
-  <si>
-    <t>제91수도방어군단</t>
   </si>
   <si>
     <t>내무성</t>
@@ -2535,8 +2532,8 @@
   <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I371" sqref="I371"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H342" sqref="H342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2547,7 +2544,7 @@
     <col min="4" max="4" width="9.6328125" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="10.1796875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="19.36328125" style="8" customWidth="1"/>
     <col min="9" max="9" width="14.81640625" style="21" customWidth="1"/>
     <col min="10" max="10" width="27.36328125" style="16" customWidth="1"/>
     <col min="11" max="11" width="24.08984375" style="22" customWidth="1"/>
@@ -2576,10 +2573,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>5</v>
@@ -2588,7 +2585,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>7</v>
@@ -2797,7 +2794,7 @@
         <v>88</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>544</v>
@@ -2826,7 +2823,7 @@
         <v>88</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>535</v>
@@ -2855,7 +2852,7 @@
         <v>88</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>545</v>
@@ -2884,7 +2881,7 @@
         <v>88</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>545</v>
@@ -2913,7 +2910,7 @@
         <v>88</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>545</v>
@@ -5866,7 +5863,7 @@
         <v>88</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>553</v>
@@ -8667,10 +8664,10 @@
         <v>547</v>
       </c>
       <c r="I210" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K210" s="22" t="s">
         <v>557</v>
@@ -8690,16 +8687,16 @@
         <v>18</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K211" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -8713,16 +8710,16 @@
         <v>18</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K212" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -8736,16 +8733,16 @@
         <v>18</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K213" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -8759,16 +8756,16 @@
         <v>18</v>
       </c>
       <c r="J214" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K214" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -8782,16 +8779,16 @@
         <v>18</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K215" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -8805,16 +8802,16 @@
         <v>18</v>
       </c>
       <c r="J216" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K216" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -8828,16 +8825,16 @@
         <v>18</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K217" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -8851,16 +8848,16 @@
         <v>64</v>
       </c>
       <c r="J218" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K218" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -8874,16 +8871,16 @@
         <v>549</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K219" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -8897,16 +8894,16 @@
         <v>549</v>
       </c>
       <c r="J220" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K220" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L220" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="M220" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -8917,19 +8914,19 @@
         <v>547</v>
       </c>
       <c r="I221" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="J221" s="16" t="s">
         <v>603</v>
-      </c>
-      <c r="J221" s="16" t="s">
-        <v>604</v>
       </c>
       <c r="K221" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -8943,16 +8940,16 @@
         <v>18</v>
       </c>
       <c r="J222" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K222" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -8966,16 +8963,16 @@
         <v>18</v>
       </c>
       <c r="J223" s="16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K223" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -8989,16 +8986,16 @@
         <v>18</v>
       </c>
       <c r="J224" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K224" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9012,16 +9009,16 @@
         <v>18</v>
       </c>
       <c r="J225" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K225" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9035,16 +9032,16 @@
         <v>18</v>
       </c>
       <c r="J226" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K226" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9058,16 +9055,16 @@
         <v>18</v>
       </c>
       <c r="J227" s="16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K227" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9081,16 +9078,16 @@
         <v>18</v>
       </c>
       <c r="J228" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K228" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M228" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9104,16 +9101,16 @@
         <v>64</v>
       </c>
       <c r="J229" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K229" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L229" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9127,16 +9124,16 @@
         <v>549</v>
       </c>
       <c r="J230" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K230" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L230" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9147,10 +9144,10 @@
         <v>547</v>
       </c>
       <c r="I231" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J231" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K231" s="22" t="s">
         <v>549</v>
@@ -9159,7 +9156,7 @@
         <v>551</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9173,7 +9170,7 @@
         <v>18</v>
       </c>
       <c r="J232" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K232" s="22" t="s">
         <v>549</v>
@@ -9182,7 +9179,7 @@
         <v>551</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9196,7 +9193,7 @@
         <v>64</v>
       </c>
       <c r="J233" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K233" s="22" t="s">
         <v>549</v>
@@ -9205,7 +9202,7 @@
         <v>551</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -9219,7 +9216,7 @@
         <v>64</v>
       </c>
       <c r="J234" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K234" s="22" t="s">
         <v>549</v>
@@ -9228,7 +9225,7 @@
         <v>551</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -9242,7 +9239,7 @@
         <v>549</v>
       </c>
       <c r="J235" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K235" s="22" t="s">
         <v>549</v>
@@ -9251,7 +9248,7 @@
         <v>551</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -9274,7 +9271,7 @@
         <v>551</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -9351,7 +9348,7 @@
         <v>11</v>
       </c>
       <c r="H240" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I240" s="21" t="s">
         <v>11</v>
@@ -9363,7 +9360,7 @@
         <v>11</v>
       </c>
       <c r="L240" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M240" s="4" t="s">
         <v>531</v>
@@ -9383,7 +9380,7 @@
         <v>564</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H241" s="8" t="s">
         <v>420</v>
@@ -9418,7 +9415,7 @@
         <v>564</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H242" s="8" t="s">
         <v>420</v>
@@ -9453,7 +9450,7 @@
         <v>564</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H243" s="8" t="s">
         <v>420</v>
@@ -9488,7 +9485,7 @@
         <v>564</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H244" s="8" t="s">
         <v>420</v>
@@ -9526,7 +9523,7 @@
         <v>564</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H245" s="8" t="s">
         <v>420</v>
@@ -9561,7 +9558,7 @@
         <v>564</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H246" s="8" t="s">
         <v>420</v>
@@ -9599,7 +9596,7 @@
         <v>88</v>
       </c>
       <c r="H247" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I247" s="21" t="s">
         <v>88</v>
@@ -9634,7 +9631,7 @@
         <v>88</v>
       </c>
       <c r="H248" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I248" s="21" t="s">
         <v>88</v>
@@ -9768,7 +9765,7 @@
         <v>11</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I252" s="21" t="s">
         <v>11</v>
@@ -9803,7 +9800,7 @@
         <v>18</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I253" s="21" t="s">
         <v>18</v>
@@ -9838,7 +9835,7 @@
         <v>18</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I254" s="21" t="s">
         <v>18</v>
@@ -9873,7 +9870,7 @@
         <v>18</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I255" s="21" t="s">
         <v>18</v>
@@ -9908,7 +9905,7 @@
         <v>564</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H256" s="8" t="s">
         <v>420</v>
@@ -9946,7 +9943,7 @@
         <v>11</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I257" s="21" t="s">
         <v>11</v>
@@ -9981,7 +9978,7 @@
         <v>11</v>
       </c>
       <c r="H258" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I258" s="21" t="s">
         <v>11</v>
@@ -10016,7 +10013,7 @@
         <v>439</v>
       </c>
       <c r="H259" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I259" s="21" t="s">
         <v>11</v>
@@ -10051,7 +10048,7 @@
         <v>439</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I260" s="21" t="s">
         <v>11</v>
@@ -10086,7 +10083,7 @@
         <v>439</v>
       </c>
       <c r="H261" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I261" s="21" t="s">
         <v>11</v>
@@ -10153,7 +10150,7 @@
         <v>439</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I263" s="21" t="s">
         <v>11</v>
@@ -10188,7 +10185,7 @@
         <v>11</v>
       </c>
       <c r="H264" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I264" s="21" t="s">
         <v>11</v>
@@ -10223,7 +10220,7 @@
         <v>11</v>
       </c>
       <c r="H265" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I265" s="21" t="s">
         <v>11</v>
@@ -10258,7 +10255,7 @@
         <v>11</v>
       </c>
       <c r="H266" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I266" s="21" t="s">
         <v>11</v>
@@ -10357,7 +10354,7 @@
         <v>439</v>
       </c>
       <c r="H269" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I269" s="21" t="s">
         <v>11</v>
@@ -10392,7 +10389,7 @@
         <v>439</v>
       </c>
       <c r="H270" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I270" s="21" t="s">
         <v>11</v>
@@ -10427,7 +10424,7 @@
         <v>439</v>
       </c>
       <c r="H271" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I271" s="21" t="s">
         <v>11</v>
@@ -10462,7 +10459,7 @@
         <v>11</v>
       </c>
       <c r="H272" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I272" s="17" t="s">
         <v>11</v>
@@ -10500,7 +10497,7 @@
         <v>439</v>
       </c>
       <c r="H273" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I273" s="21" t="s">
         <v>11</v>
@@ -10535,7 +10532,7 @@
         <v>11</v>
       </c>
       <c r="H274" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I274" s="21" t="s">
         <v>11</v>
@@ -10672,7 +10669,7 @@
         <v>439</v>
       </c>
       <c r="H278" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I278" s="21" t="s">
         <v>11</v>
@@ -10707,7 +10704,7 @@
         <v>11</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I279" s="21" t="s">
         <v>11</v>
@@ -10742,7 +10739,7 @@
         <v>439</v>
       </c>
       <c r="H280" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I280" s="21" t="s">
         <v>11</v>
@@ -10777,7 +10774,7 @@
         <v>11</v>
       </c>
       <c r="H281" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I281" s="21" t="s">
         <v>11</v>
@@ -10812,7 +10809,7 @@
         <v>439</v>
       </c>
       <c r="H282" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I282" s="21" t="s">
         <v>11</v>
@@ -10847,7 +10844,7 @@
         <v>439</v>
       </c>
       <c r="H283" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I283" s="21" t="s">
         <v>11</v>
@@ -10882,7 +10879,7 @@
         <v>439</v>
       </c>
       <c r="H284" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I284" s="21" t="s">
         <v>11</v>
@@ -10917,7 +10914,7 @@
         <v>11</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I285" s="21" t="s">
         <v>11</v>
@@ -10952,7 +10949,7 @@
         <v>11</v>
       </c>
       <c r="H286" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I286" s="21" t="s">
         <v>11</v>
@@ -10987,7 +10984,7 @@
         <v>11</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I287" s="21" t="s">
         <v>11</v>
@@ -11022,7 +11019,7 @@
         <v>439</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I288" s="21" t="s">
         <v>11</v>
@@ -11057,7 +11054,7 @@
         <v>439</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I289" s="21" t="s">
         <v>11</v>
@@ -11092,7 +11089,7 @@
         <v>439</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I290" s="21" t="s">
         <v>11</v>
@@ -11127,7 +11124,7 @@
         <v>439</v>
       </c>
       <c r="H291" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I291" s="21" t="s">
         <v>11</v>
@@ -11162,7 +11159,7 @@
         <v>439</v>
       </c>
       <c r="H292" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I292" s="21" t="s">
         <v>11</v>
@@ -11197,7 +11194,7 @@
         <v>439</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I293" s="21" t="s">
         <v>11</v>
@@ -11232,7 +11229,7 @@
         <v>11</v>
       </c>
       <c r="H294" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I294" s="21" t="s">
         <v>11</v>
@@ -11267,7 +11264,7 @@
         <v>439</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I295" s="21" t="s">
         <v>11</v>
@@ -11302,7 +11299,7 @@
         <v>439</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I296" s="21" t="s">
         <v>11</v>
@@ -11337,7 +11334,7 @@
         <v>439</v>
       </c>
       <c r="H297" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I297" s="21" t="s">
         <v>11</v>
@@ -11372,7 +11369,7 @@
         <v>439</v>
       </c>
       <c r="H298" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I298" s="21" t="s">
         <v>11</v>
@@ -11471,7 +11468,7 @@
         <v>11</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I301" s="21" t="s">
         <v>11</v>
@@ -11506,7 +11503,7 @@
         <v>11</v>
       </c>
       <c r="H302" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I302" s="21" t="s">
         <v>11</v>
@@ -11541,7 +11538,7 @@
         <v>439</v>
       </c>
       <c r="H303" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I303" s="21" t="s">
         <v>11</v>
@@ -11576,7 +11573,7 @@
         <v>439</v>
       </c>
       <c r="H304" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I304" s="21" t="s">
         <v>11</v>
@@ -11611,7 +11608,7 @@
         <v>439</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I305" s="21" t="s">
         <v>11</v>
@@ -11646,7 +11643,7 @@
         <v>439</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I306" s="21" t="s">
         <v>11</v>
@@ -11853,7 +11850,7 @@
         <v>564</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H312" s="8" t="s">
         <v>420</v>
@@ -11929,7 +11926,7 @@
         <v>11</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I314" s="21" t="s">
         <v>11</v>
@@ -11961,7 +11958,7 @@
         <v>564</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H315" s="8" t="s">
         <v>406</v>
@@ -11996,7 +11993,7 @@
         <v>564</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H316" s="8" t="s">
         <v>397</v>
@@ -12031,10 +12028,10 @@
         <v>564</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H317" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I317" s="21" t="s">
         <v>88</v>
@@ -12066,7 +12063,7 @@
         <v>564</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H318" s="8" t="s">
         <v>368</v>
@@ -12101,10 +12098,10 @@
         <v>564</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H319" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I319" s="21" t="s">
         <v>88</v>
@@ -12136,10 +12133,10 @@
         <v>564</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H320" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I320" s="21" t="s">
         <v>88</v>
@@ -12171,10 +12168,10 @@
         <v>564</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H321" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I321" s="21" t="s">
         <v>88</v>
@@ -12206,10 +12203,10 @@
         <v>564</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I322" s="21" t="s">
         <v>88</v>
@@ -12241,10 +12238,10 @@
         <v>564</v>
       </c>
       <c r="G323" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H323" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I323" s="21" t="s">
         <v>88</v>
@@ -12276,10 +12273,10 @@
         <v>564</v>
       </c>
       <c r="G324" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H324" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I324" s="21" t="s">
         <v>88</v>
@@ -12311,10 +12308,10 @@
         <v>564</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H325" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I325" s="21" t="s">
         <v>88</v>
@@ -12381,10 +12378,10 @@
         <v>564</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I327" s="21" t="s">
         <v>88</v>
@@ -12486,7 +12483,7 @@
         <v>564</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H330" s="8" t="s">
         <v>418</v>
@@ -12495,7 +12492,7 @@
         <v>88</v>
       </c>
       <c r="J330" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K330" s="10" t="s">
         <v>553</v>
@@ -12521,7 +12518,7 @@
         <v>564</v>
       </c>
       <c r="G331" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H331" s="8" t="s">
         <v>109</v>
@@ -12556,10 +12553,10 @@
         <v>564</v>
       </c>
       <c r="G332" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I332" s="21" t="s">
         <v>88</v>
@@ -12591,7 +12588,7 @@
         <v>564</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H333" s="8" t="s">
         <v>368</v>
@@ -12629,7 +12626,7 @@
         <v>11</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I334" s="21" t="s">
         <v>11</v>
@@ -12696,7 +12693,7 @@
         <v>439</v>
       </c>
       <c r="H336" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I336" s="21" t="s">
         <v>11</v>
@@ -12731,7 +12728,7 @@
         <v>439</v>
       </c>
       <c r="H337" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I337" s="21" t="s">
         <v>11</v>
@@ -12798,7 +12795,7 @@
         <v>11</v>
       </c>
       <c r="H339" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I339" s="21" t="s">
         <v>11</v>
@@ -12833,7 +12830,7 @@
         <v>88</v>
       </c>
       <c r="H340" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I340" s="21" t="s">
         <v>88</v>
@@ -12868,7 +12865,7 @@
         <v>88</v>
       </c>
       <c r="H341" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I341" s="21" t="s">
         <v>88</v>
@@ -12903,7 +12900,7 @@
         <v>88</v>
       </c>
       <c r="H342" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I342" s="21" t="s">
         <v>88</v>
@@ -12938,7 +12935,7 @@
         <v>564</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H343" s="8" t="s">
         <v>420</v>
@@ -12973,7 +12970,7 @@
         <v>564</v>
       </c>
       <c r="G344" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H344" s="8" t="s">
         <v>109</v>
@@ -13011,7 +13008,7 @@
         <v>564</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H345" s="8" t="s">
         <v>109</v>
@@ -13049,7 +13046,7 @@
         <v>564</v>
       </c>
       <c r="G346" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H346" s="8" t="s">
         <v>109</v>
@@ -13119,13 +13116,13 @@
         <v>88</v>
       </c>
       <c r="H348" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I348" s="21" t="s">
         <v>88</v>
       </c>
       <c r="J348" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K348" s="10" t="s">
         <v>553</v>
@@ -13154,7 +13151,7 @@
         <v>88</v>
       </c>
       <c r="H349" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I349" s="21" t="s">
         <v>88</v>
@@ -13189,7 +13186,7 @@
         <v>88</v>
       </c>
       <c r="H350" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I350" s="21" t="s">
         <v>88</v>
@@ -13224,7 +13221,7 @@
         <v>88</v>
       </c>
       <c r="H351" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I351" s="21" t="s">
         <v>88</v>
@@ -13259,7 +13256,7 @@
         <v>88</v>
       </c>
       <c r="H352" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I352" s="21" t="s">
         <v>88</v>
@@ -13294,7 +13291,7 @@
         <v>88</v>
       </c>
       <c r="H353" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I353" s="21" t="s">
         <v>88</v>
@@ -13329,7 +13326,7 @@
         <v>88</v>
       </c>
       <c r="H354" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I354" s="21" t="s">
         <v>88</v>
@@ -13364,7 +13361,7 @@
         <v>88</v>
       </c>
       <c r="H355" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I355" s="21" t="s">
         <v>88</v>
@@ -13399,7 +13396,7 @@
         <v>88</v>
       </c>
       <c r="H356" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I356" s="21" t="s">
         <v>88</v>
@@ -13434,7 +13431,7 @@
         <v>88</v>
       </c>
       <c r="H357" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I357" s="21" t="s">
         <v>88</v>
@@ -13469,7 +13466,7 @@
         <v>88</v>
       </c>
       <c r="J358" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -13489,7 +13486,7 @@
         <v>88</v>
       </c>
       <c r="J359" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -13497,19 +13494,13 @@
         <v>1</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="G360" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H360" s="8" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="I360" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J360" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -13517,19 +13508,13 @@
         <v>1</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="G361" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H361" s="8" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="I361" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J361" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="362" spans="1:13">
@@ -13537,19 +13522,13 @@
         <v>1</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="G362" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H362" s="8" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="I362" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J362" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="363" spans="1:13">
@@ -13569,7 +13548,7 @@
         <v>11</v>
       </c>
       <c r="J363" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="364" spans="1:13">

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68F604C-4523-4245-88BD-5A22D5EAB440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65064A-3EA7-4137-8721-888FBAD87CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2532,8 +2532,8 @@
   <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H342" sqref="H342"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I358" sqref="I358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2546,7 +2546,7 @@
     <col min="6" max="6" width="14.81640625" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="19.36328125" style="8" customWidth="1"/>
     <col min="9" max="9" width="14.81640625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="27.36328125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="56.7265625" style="16" customWidth="1"/>
     <col min="11" max="11" width="24.08984375" style="22" customWidth="1"/>
     <col min="12" max="12" width="24.08984375" style="8" customWidth="1"/>
     <col min="13" max="13" width="15.90625" style="4" customWidth="1"/>
@@ -2794,7 +2794,7 @@
         <v>88</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>626</v>
+        <v>218</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>544</v>
@@ -2823,7 +2823,7 @@
         <v>88</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>626</v>
+        <v>218</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>535</v>
@@ -12037,7 +12037,7 @@
         <v>88</v>
       </c>
       <c r="J317" s="16" t="s">
-        <v>402</v>
+        <v>577</v>
       </c>
       <c r="K317" s="10" t="s">
         <v>553</v>
@@ -13459,14 +13459,14 @@
       <c r="G358" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H358" s="8" t="s">
-        <v>218</v>
+      <c r="H358" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="I358" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J358" s="6" t="s">
-        <v>626</v>
+        <v>218</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -13479,14 +13479,14 @@
       <c r="G359" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H359" s="10" t="s">
-        <v>218</v>
+      <c r="H359" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="I359" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J359" s="6" t="s">
-        <v>626</v>
+        <v>218</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -13906,5 +13906,6 @@
     <sortCondition ref="E2:E375"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65064A-3EA7-4137-8721-888FBAD87CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEF298-2896-4CFD-98B5-12F878A7C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$362</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="674">
   <si>
     <t>OrgString</t>
   </si>
@@ -1709,9 +1709,6 @@
     <t>철도성</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>기계공업성</t>
   </si>
   <si>
@@ -2036,9 +2033,6 @@
     <t>정찰총국_기술정찰국</t>
   </si>
   <si>
-    <t>중앙위원회_근로단체부</t>
-  </si>
-  <si>
     <t>호위사령부_제91수도방어군단</t>
   </si>
   <si>
@@ -2061,6 +2055,9 @@
   </si>
   <si>
     <t>작전총국_제3처_5군단</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
   </si>
 </sst>
 </file>
@@ -2529,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:M374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I358" sqref="I358"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -2567,16 +2564,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>5</v>
@@ -2585,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>7</v>
@@ -2707,7 +2704,7 @@
         <v>88</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>542</v>
@@ -2817,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>88</v>
@@ -2852,7 +2849,7 @@
         <v>88</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>545</v>
@@ -2881,7 +2878,7 @@
         <v>88</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>545</v>
@@ -2910,7 +2907,7 @@
         <v>88</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>545</v>
@@ -2939,7 +2936,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>531</v>
@@ -2968,7 +2965,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>514</v>
@@ -2997,7 +2994,7 @@
         <v>18</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>537</v>
@@ -3026,7 +3023,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>537</v>
@@ -3055,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>537</v>
@@ -3084,7 +3081,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>531</v>
@@ -3165,7 +3162,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>521</v>
@@ -3194,7 +3191,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>521</v>
@@ -3223,7 +3220,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>524</v>
@@ -3252,7 +3249,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>524</v>
@@ -3281,7 +3278,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>524</v>
@@ -3310,7 +3307,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>524</v>
@@ -3403,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>537</v>
@@ -3435,7 +3432,7 @@
         <v>88</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>531</v>
@@ -4398,10 +4395,10 @@
         <v>172</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>512</v>
@@ -4427,10 +4424,10 @@
         <v>172</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>512</v>
@@ -4459,10 +4456,10 @@
         <v>172</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>512</v>
@@ -4488,10 +4485,10 @@
         <v>172</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>512</v>
@@ -4517,10 +4514,10 @@
         <v>410</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>513</v>
@@ -4549,10 +4546,10 @@
         <v>410</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>513</v>
@@ -4897,7 +4894,7 @@
         <v>547</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J80" s="16" t="s">
         <v>343</v>
@@ -4926,7 +4923,7 @@
         <v>547</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J81" s="16" t="s">
         <v>343</v>
@@ -5019,10 +5016,10 @@
         <v>172</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>512</v>
@@ -5048,10 +5045,10 @@
         <v>167</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -5106,10 +5103,10 @@
         <v>46</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>535</v>
@@ -5222,10 +5219,10 @@
         <v>121</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>519</v>
@@ -5254,10 +5251,10 @@
         <v>121</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>519</v>
@@ -5283,10 +5280,10 @@
         <v>121</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>519</v>
@@ -5306,7 +5303,7 @@
         <v>547</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J94" s="16" t="s">
         <v>42</v>
@@ -5335,7 +5332,7 @@
         <v>547</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J95" s="17" t="s">
         <v>491</v>
@@ -5367,7 +5364,7 @@
         <v>88</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>553</v>
@@ -5654,7 +5651,7 @@
         <v>547</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J106" s="17" t="s">
         <v>118</v>
@@ -5863,7 +5860,7 @@
         <v>88</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>553</v>
@@ -6179,7 +6176,7 @@
         <v>547</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J124" s="17" t="s">
         <v>26</v>
@@ -6449,10 +6446,10 @@
         <v>46</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L133" s="10" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="M133" s="4" t="s">
         <v>531</v>
@@ -6611,7 +6608,7 @@
         <v>547</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J139" s="17" t="s">
         <v>26</v>
@@ -6872,7 +6869,7 @@
         <v>547</v>
       </c>
       <c r="I148" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J148" s="17" t="s">
         <v>199</v>
@@ -6927,7 +6924,7 @@
         <v>547</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J150" s="17" t="s">
         <v>200</v>
@@ -6956,7 +6953,7 @@
         <v>547</v>
       </c>
       <c r="I151" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J151" s="16" t="s">
         <v>203</v>
@@ -7101,7 +7098,7 @@
         <v>547</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J156" s="17" t="s">
         <v>210</v>
@@ -7159,7 +7156,7 @@
         <v>547</v>
       </c>
       <c r="I158" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J158" s="16" t="s">
         <v>237</v>
@@ -7333,7 +7330,7 @@
         <v>547</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J164" s="18" t="s">
         <v>250</v>
@@ -7362,7 +7359,7 @@
         <v>547</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J165" s="18" t="s">
         <v>252</v>
@@ -7565,7 +7562,7 @@
         <v>547</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J172" s="18" t="s">
         <v>252</v>
@@ -7771,7 +7768,7 @@
         <v>547</v>
       </c>
       <c r="I179" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J179" s="16" t="s">
         <v>231</v>
@@ -7800,7 +7797,7 @@
         <v>547</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J180" s="17" t="s">
         <v>192</v>
@@ -7829,7 +7826,7 @@
         <v>547</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J181" s="17" t="s">
         <v>192</v>
@@ -8003,7 +8000,7 @@
         <v>547</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J187" s="17" t="s">
         <v>157</v>
@@ -8032,7 +8029,7 @@
         <v>547</v>
       </c>
       <c r="I188" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J188" s="17" t="s">
         <v>157</v>
@@ -8061,7 +8058,7 @@
         <v>547</v>
       </c>
       <c r="I189" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J189" s="17" t="s">
         <v>159</v>
@@ -8090,7 +8087,7 @@
         <v>547</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J190" s="17" t="s">
         <v>159</v>
@@ -8293,7 +8290,7 @@
         <v>547</v>
       </c>
       <c r="I197" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J197" s="17" t="s">
         <v>133</v>
@@ -8322,7 +8319,7 @@
         <v>547</v>
       </c>
       <c r="I198" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J198" s="17" t="s">
         <v>133</v>
@@ -8351,7 +8348,7 @@
         <v>547</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J199" s="17" t="s">
         <v>133</v>
@@ -8525,7 +8522,7 @@
         <v>547</v>
       </c>
       <c r="I205" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J205" s="17" t="s">
         <v>143</v>
@@ -8554,7 +8551,7 @@
         <v>547</v>
       </c>
       <c r="I206" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J206" s="19" t="s">
         <v>151</v>
@@ -8664,16 +8661,16 @@
         <v>547</v>
       </c>
       <c r="I210" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K210" s="22" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>557</v>
+        <v>673</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -8687,16 +8684,16 @@
         <v>18</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K211" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -8710,16 +8707,16 @@
         <v>18</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K212" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -8733,16 +8730,16 @@
         <v>18</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K213" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -8756,16 +8753,16 @@
         <v>18</v>
       </c>
       <c r="J214" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K214" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L214" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -8779,16 +8776,16 @@
         <v>18</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K215" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L215" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -8802,16 +8799,16 @@
         <v>18</v>
       </c>
       <c r="J216" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K216" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L216" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -8825,16 +8822,16 @@
         <v>18</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K217" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -8848,16 +8845,16 @@
         <v>64</v>
       </c>
       <c r="J218" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K218" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -8871,16 +8868,16 @@
         <v>549</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K219" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -8894,16 +8891,16 @@
         <v>549</v>
       </c>
       <c r="J220" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K220" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L220" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="M220" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -8914,19 +8911,19 @@
         <v>547</v>
       </c>
       <c r="I221" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="J221" s="16" t="s">
         <v>602</v>
-      </c>
-      <c r="J221" s="16" t="s">
-        <v>603</v>
       </c>
       <c r="K221" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -8940,16 +8937,16 @@
         <v>18</v>
       </c>
       <c r="J222" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K222" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -8963,16 +8960,16 @@
         <v>18</v>
       </c>
       <c r="J223" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K223" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -8986,16 +8983,16 @@
         <v>18</v>
       </c>
       <c r="J224" s="16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K224" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9009,16 +9006,16 @@
         <v>18</v>
       </c>
       <c r="J225" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K225" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9032,16 +9029,16 @@
         <v>18</v>
       </c>
       <c r="J226" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K226" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9055,16 +9052,16 @@
         <v>18</v>
       </c>
       <c r="J227" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K227" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9078,16 +9075,16 @@
         <v>18</v>
       </c>
       <c r="J228" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K228" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M228" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9101,16 +9098,16 @@
         <v>64</v>
       </c>
       <c r="J229" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K229" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L229" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9124,16 +9121,16 @@
         <v>549</v>
       </c>
       <c r="J230" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K230" s="22" t="s">
         <v>549</v>
       </c>
       <c r="L230" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9144,10 +9141,10 @@
         <v>547</v>
       </c>
       <c r="I231" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J231" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K231" s="22" t="s">
         <v>549</v>
@@ -9156,7 +9153,7 @@
         <v>551</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9170,7 +9167,7 @@
         <v>18</v>
       </c>
       <c r="J232" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K232" s="22" t="s">
         <v>549</v>
@@ -9179,7 +9176,7 @@
         <v>551</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9193,7 +9190,7 @@
         <v>64</v>
       </c>
       <c r="J233" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K233" s="22" t="s">
         <v>549</v>
@@ -9202,7 +9199,7 @@
         <v>551</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -9216,7 +9213,7 @@
         <v>64</v>
       </c>
       <c r="J234" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K234" s="22" t="s">
         <v>549</v>
@@ -9225,7 +9222,7 @@
         <v>551</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -9239,7 +9236,7 @@
         <v>549</v>
       </c>
       <c r="J235" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K235" s="22" t="s">
         <v>549</v>
@@ -9248,7 +9245,7 @@
         <v>551</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -9271,7 +9268,7 @@
         <v>551</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -9291,7 +9288,7 @@
         <v>547</v>
       </c>
       <c r="I237" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K237" s="10" t="s">
         <v>553</v>
@@ -9328,7 +9325,7 @@
         <v>88</v>
       </c>
       <c r="J239" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -9342,13 +9339,13 @@
         <v>1</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G240" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H240" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I240" s="21" t="s">
         <v>11</v>
@@ -9360,7 +9357,7 @@
         <v>11</v>
       </c>
       <c r="L240" s="23" t="s">
-        <v>666</v>
+        <v>479</v>
       </c>
       <c r="M240" s="4" t="s">
         <v>531</v>
@@ -9377,10 +9374,10 @@
         <v>1</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H241" s="8" t="s">
         <v>420</v>
@@ -9389,7 +9386,7 @@
         <v>88</v>
       </c>
       <c r="J241" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K241" s="10" t="s">
         <v>553</v>
@@ -9412,10 +9409,10 @@
         <v>1</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H242" s="8" t="s">
         <v>420</v>
@@ -9424,7 +9421,7 @@
         <v>88</v>
       </c>
       <c r="J242" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K242" s="10" t="s">
         <v>553</v>
@@ -9447,10 +9444,10 @@
         <v>1</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H243" s="8" t="s">
         <v>420</v>
@@ -9459,7 +9456,7 @@
         <v>88</v>
       </c>
       <c r="J243" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K243" s="10" t="s">
         <v>553</v>
@@ -9482,10 +9479,10 @@
         <v>1</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H244" s="8" t="s">
         <v>420</v>
@@ -9494,7 +9491,7 @@
         <v>88</v>
       </c>
       <c r="J244" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K244" s="10" t="s">
         <v>553</v>
@@ -9520,10 +9517,10 @@
         <v>1</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H245" s="8" t="s">
         <v>420</v>
@@ -9532,7 +9529,7 @@
         <v>88</v>
       </c>
       <c r="J245" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K245" s="10" t="s">
         <v>553</v>
@@ -9555,10 +9552,10 @@
         <v>1</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G246" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H246" s="8" t="s">
         <v>420</v>
@@ -9567,7 +9564,7 @@
         <v>88</v>
       </c>
       <c r="J246" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K246" s="10" t="s">
         <v>553</v>
@@ -9590,13 +9587,13 @@
         <v>1</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G247" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H247" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I247" s="21" t="s">
         <v>88</v>
@@ -9625,13 +9622,13 @@
         <v>1</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G248" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H248" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I248" s="21" t="s">
         <v>88</v>
@@ -9660,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G249" s="14" t="s">
         <v>262</v>
@@ -9692,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G250" s="14" t="s">
         <v>262</v>
@@ -9727,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G251" s="14" t="s">
         <v>262</v>
@@ -9759,13 +9756,13 @@
         <v>1</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G252" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I252" s="21" t="s">
         <v>11</v>
@@ -9794,13 +9791,13 @@
         <v>1</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G253" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I253" s="21" t="s">
         <v>18</v>
@@ -9829,13 +9826,13 @@
         <v>1</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G254" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I254" s="21" t="s">
         <v>18</v>
@@ -9864,13 +9861,13 @@
         <v>1</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G255" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I255" s="21" t="s">
         <v>18</v>
@@ -9902,10 +9899,10 @@
         <v>1</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H256" s="8" t="s">
         <v>420</v>
@@ -9914,7 +9911,7 @@
         <v>88</v>
       </c>
       <c r="J256" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K256" s="10" t="s">
         <v>553</v>
@@ -9937,13 +9934,13 @@
         <v>1</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G257" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I257" s="21" t="s">
         <v>11</v>
@@ -9972,13 +9969,13 @@
         <v>1</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G258" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H258" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I258" s="21" t="s">
         <v>11</v>
@@ -10007,13 +10004,13 @@
         <v>1</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G259" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H259" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I259" s="21" t="s">
         <v>11</v>
@@ -10042,13 +10039,13 @@
         <v>1</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G260" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I260" s="21" t="s">
         <v>11</v>
@@ -10077,13 +10074,13 @@
         <v>1</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G261" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H261" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I261" s="21" t="s">
         <v>11</v>
@@ -10112,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G262" s="14" t="s">
         <v>262</v>
@@ -10144,19 +10141,19 @@
         <v>1</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G263" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I263" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J263" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K263" s="22" t="s">
         <v>553</v>
@@ -10179,13 +10176,13 @@
         <v>1</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G264" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H264" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I264" s="21" t="s">
         <v>11</v>
@@ -10214,13 +10211,13 @@
         <v>1</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G265" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H265" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I265" s="21" t="s">
         <v>11</v>
@@ -10249,13 +10246,13 @@
         <v>1</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G266" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H266" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I266" s="21" t="s">
         <v>11</v>
@@ -10284,16 +10281,16 @@
         <v>1</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G267" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H267" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I267" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K267" s="22" t="s">
         <v>553</v>
@@ -10316,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G268" s="14" t="s">
         <v>262</v>
@@ -10348,13 +10345,13 @@
         <v>1</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G269" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H269" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I269" s="21" t="s">
         <v>11</v>
@@ -10383,19 +10380,19 @@
         <v>1</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G270" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H270" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I270" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J270" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K270" s="22" t="s">
         <v>553</v>
@@ -10418,19 +10415,19 @@
         <v>1</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G271" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H271" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I271" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J271" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K271" s="22" t="s">
         <v>553</v>
@@ -10453,19 +10450,19 @@
         <v>1</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G272" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H272" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I272" s="17" t="s">
         <v>11</v>
       </c>
       <c r="J272" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K272" s="10" t="s">
         <v>553</v>
@@ -10491,19 +10488,19 @@
         <v>1</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G273" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H273" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I273" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J273" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K273" s="22" t="s">
         <v>553</v>
@@ -10526,13 +10523,13 @@
         <v>1</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G274" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H274" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I274" s="21" t="s">
         <v>11</v>
@@ -10561,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G275" s="14" t="s">
         <v>262</v>
@@ -10593,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G276" s="8" t="s">
         <v>439</v>
@@ -10628,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G277" s="8" t="s">
         <v>439</v>
@@ -10663,13 +10660,13 @@
         <v>1</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G278" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H278" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I278" s="21" t="s">
         <v>11</v>
@@ -10698,13 +10695,13 @@
         <v>1</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G279" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I279" s="21" t="s">
         <v>11</v>
@@ -10733,13 +10730,13 @@
         <v>1</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G280" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H280" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I280" s="21" t="s">
         <v>11</v>
@@ -10768,13 +10765,13 @@
         <v>1</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G281" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H281" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I281" s="21" t="s">
         <v>11</v>
@@ -10803,13 +10800,13 @@
         <v>1</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G282" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H282" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I282" s="21" t="s">
         <v>11</v>
@@ -10838,13 +10835,13 @@
         <v>1</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G283" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H283" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I283" s="21" t="s">
         <v>11</v>
@@ -10873,13 +10870,13 @@
         <v>1</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G284" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H284" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I284" s="21" t="s">
         <v>11</v>
@@ -10908,13 +10905,13 @@
         <v>1</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G285" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I285" s="21" t="s">
         <v>11</v>
@@ -10943,13 +10940,13 @@
         <v>1</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G286" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H286" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I286" s="21" t="s">
         <v>11</v>
@@ -10978,13 +10975,13 @@
         <v>1</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G287" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I287" s="21" t="s">
         <v>11</v>
@@ -11013,19 +11010,19 @@
         <v>1</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G288" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I288" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J288" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K288" s="22" t="s">
         <v>553</v>
@@ -11048,19 +11045,19 @@
         <v>1</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G289" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I289" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J289" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K289" s="22" t="s">
         <v>553</v>
@@ -11083,19 +11080,19 @@
         <v>1</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G290" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I290" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J290" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K290" s="22" t="s">
         <v>553</v>
@@ -11118,19 +11115,19 @@
         <v>1</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G291" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H291" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I291" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J291" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K291" s="22" t="s">
         <v>553</v>
@@ -11153,13 +11150,13 @@
         <v>1</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G292" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H292" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I292" s="21" t="s">
         <v>11</v>
@@ -11188,13 +11185,13 @@
         <v>1</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G293" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I293" s="21" t="s">
         <v>11</v>
@@ -11223,13 +11220,13 @@
         <v>1</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G294" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H294" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I294" s="21" t="s">
         <v>11</v>
@@ -11258,13 +11255,13 @@
         <v>1</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G295" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I295" s="21" t="s">
         <v>11</v>
@@ -11293,13 +11290,13 @@
         <v>1</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G296" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I296" s="21" t="s">
         <v>11</v>
@@ -11328,13 +11325,13 @@
         <v>1</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G297" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H297" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I297" s="21" t="s">
         <v>11</v>
@@ -11363,19 +11360,19 @@
         <v>1</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G298" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H298" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I298" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J298" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K298" s="22" t="s">
         <v>553</v>
@@ -11398,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G299" s="14" t="s">
         <v>262</v>
@@ -11430,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G300" s="14" t="s">
         <v>262</v>
@@ -11462,13 +11459,13 @@
         <v>1</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G301" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I301" s="21" t="s">
         <v>11</v>
@@ -11497,13 +11494,13 @@
         <v>1</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G302" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H302" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I302" s="21" t="s">
         <v>11</v>
@@ -11532,19 +11529,19 @@
         <v>1</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G303" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H303" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I303" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J303" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K303" s="22" t="s">
         <v>553</v>
@@ -11567,19 +11564,19 @@
         <v>1</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G304" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H304" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I304" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J304" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K304" s="22" t="s">
         <v>553</v>
@@ -11602,19 +11599,19 @@
         <v>1</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G305" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I305" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J305" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K305" s="22" t="s">
         <v>553</v>
@@ -11637,19 +11634,19 @@
         <v>1</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G306" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I306" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J306" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K306" s="22" t="s">
         <v>553</v>
@@ -11672,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G307" s="8" t="s">
         <v>11</v>
@@ -11681,7 +11678,7 @@
         <v>503</v>
       </c>
       <c r="I307" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K307" s="22" t="s">
         <v>553</v>
@@ -11704,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G308" s="8" t="s">
         <v>539</v>
@@ -11716,7 +11713,7 @@
         <v>88</v>
       </c>
       <c r="J308" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K308" s="22" t="s">
         <v>553</v>
@@ -11742,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G309" s="8" t="s">
         <v>539</v>
@@ -11754,7 +11751,7 @@
         <v>88</v>
       </c>
       <c r="J309" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K309" s="22" t="s">
         <v>553</v>
@@ -11777,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G310" s="14" t="s">
         <v>262</v>
@@ -11809,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G311" s="8" t="s">
         <v>439</v>
@@ -11847,10 +11844,10 @@
         <v>1</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H312" s="8" t="s">
         <v>420</v>
@@ -11859,7 +11856,7 @@
         <v>88</v>
       </c>
       <c r="J312" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K312" s="10" t="s">
         <v>553</v>
@@ -11885,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G313" s="8" t="s">
         <v>539</v>
@@ -11920,13 +11917,13 @@
         <v>1</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G314" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I314" s="21" t="s">
         <v>11</v>
@@ -11955,10 +11952,10 @@
         <v>1</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H315" s="8" t="s">
         <v>406</v>
@@ -11990,10 +11987,10 @@
         <v>1</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H316" s="8" t="s">
         <v>397</v>
@@ -12025,19 +12022,19 @@
         <v>1</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H317" s="8" t="s">
-        <v>653</v>
+        <v>401</v>
       </c>
       <c r="I317" s="21" t="s">
         <v>88</v>
       </c>
       <c r="J317" s="16" t="s">
-        <v>577</v>
+        <v>402</v>
       </c>
       <c r="K317" s="10" t="s">
         <v>553</v>
@@ -12060,10 +12057,10 @@
         <v>1</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H318" s="8" t="s">
         <v>368</v>
@@ -12095,13 +12092,13 @@
         <v>1</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H319" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I319" s="21" t="s">
         <v>88</v>
@@ -12130,13 +12127,13 @@
         <v>1</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H320" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I320" s="21" t="s">
         <v>88</v>
@@ -12165,13 +12162,13 @@
         <v>1</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H321" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I321" s="21" t="s">
         <v>88</v>
@@ -12200,13 +12197,13 @@
         <v>1</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I322" s="21" t="s">
         <v>88</v>
@@ -12235,13 +12232,13 @@
         <v>1</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G323" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H323" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I323" s="21" t="s">
         <v>88</v>
@@ -12270,19 +12267,19 @@
         <v>1</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G324" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H324" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I324" s="21" t="s">
         <v>88</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K324" s="10" t="s">
         <v>553</v>
@@ -12305,13 +12302,13 @@
         <v>1</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H325" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I325" s="21" t="s">
         <v>88</v>
@@ -12343,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G326" s="8" t="s">
         <v>102</v>
@@ -12375,13 +12372,13 @@
         <v>1</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I327" s="21" t="s">
         <v>88</v>
@@ -12410,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G328" s="8" t="s">
         <v>88</v>
@@ -12445,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G329" s="8" t="s">
         <v>88</v>
@@ -12480,10 +12477,10 @@
         <v>1</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H330" s="8" t="s">
         <v>418</v>
@@ -12492,7 +12489,7 @@
         <v>88</v>
       </c>
       <c r="J330" s="16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K330" s="10" t="s">
         <v>553</v>
@@ -12515,10 +12512,10 @@
         <v>1</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G331" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H331" s="8" t="s">
         <v>109</v>
@@ -12527,7 +12524,7 @@
         <v>88</v>
       </c>
       <c r="J331" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K331" s="10" t="s">
         <v>553</v>
@@ -12550,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G332" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I332" s="21" t="s">
         <v>88</v>
@@ -12585,10 +12582,10 @@
         <v>1</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H333" s="8" t="s">
         <v>368</v>
@@ -12620,13 +12617,13 @@
         <v>1</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G334" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I334" s="21" t="s">
         <v>11</v>
@@ -12655,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G335" s="8" t="s">
         <v>48</v>
@@ -12687,13 +12684,13 @@
         <v>1</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G336" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H336" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I336" s="21" t="s">
         <v>11</v>
@@ -12722,13 +12719,13 @@
         <v>1</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G337" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H337" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I337" s="21" t="s">
         <v>11</v>
@@ -12757,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G338" s="14" t="s">
         <v>262</v>
@@ -12789,13 +12786,13 @@
         <v>1</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G339" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H339" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I339" s="21" t="s">
         <v>11</v>
@@ -12824,13 +12821,13 @@
         <v>1</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G340" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H340" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I340" s="21" t="s">
         <v>88</v>
@@ -12859,13 +12856,13 @@
         <v>1</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G341" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H341" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I341" s="21" t="s">
         <v>88</v>
@@ -12894,13 +12891,13 @@
         <v>1</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G342" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H342" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I342" s="21" t="s">
         <v>88</v>
@@ -12932,10 +12929,10 @@
         <v>1</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H343" s="8" t="s">
         <v>420</v>
@@ -12944,7 +12941,7 @@
         <v>88</v>
       </c>
       <c r="J343" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K343" s="10" t="s">
         <v>553</v>
@@ -12967,10 +12964,10 @@
         <v>1</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G344" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H344" s="8" t="s">
         <v>109</v>
@@ -12979,7 +12976,7 @@
         <v>88</v>
       </c>
       <c r="J344" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K344" s="10" t="s">
         <v>553</v>
@@ -13005,10 +13002,10 @@
         <v>1</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H345" s="8" t="s">
         <v>109</v>
@@ -13017,7 +13014,7 @@
         <v>88</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K345" s="10" t="s">
         <v>553</v>
@@ -13043,10 +13040,10 @@
         <v>1</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G346" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H346" s="8" t="s">
         <v>109</v>
@@ -13055,7 +13052,7 @@
         <v>88</v>
       </c>
       <c r="J346" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K346" s="10" t="s">
         <v>553</v>
@@ -13078,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G347" s="8" t="s">
         <v>88</v>
@@ -13110,19 +13107,19 @@
         <v>1</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G348" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H348" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I348" s="21" t="s">
         <v>88</v>
       </c>
       <c r="J348" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K348" s="10" t="s">
         <v>553</v>
@@ -13145,13 +13142,13 @@
         <v>1</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G349" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H349" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I349" s="21" t="s">
         <v>88</v>
@@ -13180,13 +13177,13 @@
         <v>1</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G350" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H350" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I350" s="21" t="s">
         <v>88</v>
@@ -13215,13 +13212,13 @@
         <v>1</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G351" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H351" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I351" s="21" t="s">
         <v>88</v>
@@ -13250,13 +13247,13 @@
         <v>1</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G352" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H352" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I352" s="21" t="s">
         <v>88</v>
@@ -13285,13 +13282,13 @@
         <v>1</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G353" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H353" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I353" s="21" t="s">
         <v>88</v>
@@ -13320,13 +13317,13 @@
         <v>1</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G354" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H354" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I354" s="21" t="s">
         <v>88</v>
@@ -13355,13 +13352,13 @@
         <v>1</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G355" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H355" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I355" s="21" t="s">
         <v>88</v>
@@ -13390,13 +13387,13 @@
         <v>1</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G356" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H356" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I356" s="21" t="s">
         <v>88</v>
@@ -13425,13 +13422,13 @@
         <v>1</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G357" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H357" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I357" s="21" t="s">
         <v>88</v>
@@ -13454,19 +13451,25 @@
         <v>1</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G358" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I358" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J358" s="6" t="s">
         <v>218</v>
+      </c>
+      <c r="K358" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="L358" s="10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -13474,19 +13477,25 @@
         <v>1</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G359" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H359" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I359" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J359" s="6" t="s">
         <v>218</v>
+      </c>
+      <c r="K359" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="L359" s="10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -13494,13 +13503,13 @@
         <v>1</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="I360" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J360" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -13508,13 +13517,13 @@
         <v>1</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="I361" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J361" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="362" spans="1:13">
@@ -13522,38 +13531,41 @@
         <v>1</v>
       </c>
       <c r="E362" s="9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="I362" s="23" t="s">
         <v>88</v>
       </c>
       <c r="J362" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="363" spans="1:13">
+      <c r="A363" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D363" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E363" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="G363" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H363" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="I363" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J363" s="23" t="s">
-        <v>666</v>
+        <v>566</v>
+      </c>
+      <c r="I363" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K363" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="M363" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="364" spans="1:13">
       <c r="A364" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>10</v>
@@ -13562,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="E364" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I364" s="21" t="s">
         <v>126</v>
@@ -13576,7 +13588,7 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="5" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>10</v>
@@ -13585,39 +13597,48 @@
         <v>1</v>
       </c>
       <c r="E365" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I365" s="21" t="s">
-        <v>126</v>
+        <v>569</v>
       </c>
       <c r="K365" s="22" t="s">
-        <v>549</v>
+        <v>553</v>
+      </c>
+      <c r="L365" s="8" t="s">
+        <v>553</v>
       </c>
       <c r="M365" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="5" t="s">
-        <v>63</v>
+        <v>332</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D366" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I366" s="21" t="s">
-        <v>570</v>
+        <v>561</v>
+      </c>
+      <c r="J366" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="K366" s="22" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="L366" s="8" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M366" s="4" t="s">
         <v>537</v>
@@ -13625,10 +13646,10 @@
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>10</v>
@@ -13637,30 +13658,30 @@
         <v>0</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I367" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J367" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K367" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L367" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M367" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>336</v>
+        <v>65</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>10</v>
@@ -13669,19 +13690,19 @@
         <v>0</v>
       </c>
       <c r="E368" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I368" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J368" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K368" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L368" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M368" s="4" t="s">
         <v>535</v>
@@ -13689,10 +13710,7 @@
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>10</v>
@@ -13701,27 +13719,27 @@
         <v>0</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I369" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J369" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K369" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L369" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M369" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="5" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>10</v>
@@ -13730,27 +13748,27 @@
         <v>0</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I370" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J370" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K370" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L370" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M370" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="5" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>10</v>
@@ -13759,27 +13777,30 @@
         <v>0</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I371" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J371" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K371" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L371" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M371" s="4" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="5" t="s">
-        <v>179</v>
+        <v>472</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>10</v>
@@ -13788,19 +13809,19 @@
         <v>0</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I372" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J372" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K372" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L372" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M372" s="4" t="s">
         <v>546</v>
@@ -13808,10 +13829,10 @@
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>473</v>
+        <v>65</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>10</v>
@@ -13820,19 +13841,19 @@
         <v>0</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I373" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J373" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K373" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L373" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M373" s="4" t="s">
         <v>546</v>
@@ -13840,10 +13861,7 @@
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B374" s="5" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>10</v>
@@ -13852,58 +13870,29 @@
         <v>0</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I374" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J374" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K374" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L374" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="M374" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13">
-      <c r="A375" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D375" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E375" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="I375" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="J375" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="K375" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="L375" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M363" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:M362" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M336">
       <sortCondition ref="A1:A336"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M375">
-    <sortCondition ref="E2:E375"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M374">
+    <sortCondition ref="E2:E374"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_left_2_tocode_jeongsu_x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEF298-2896-4CFD-98B5-12F878A7C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFA3AF-8F92-4EFA-A53B-E027D640EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2529,8 +2529,8 @@
   <dimension ref="A1:M374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J283" sqref="J283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
